--- a/過去問題/2019春/午前カテゴリ分け.xlsx
+++ b/過去問題/2019春/午前カテゴリ分け.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\ap\過去問題\2019春\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\ap\過去問題\2019春\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825530E7-FEF9-4534-8A0F-1A1298A38669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F8695-8E53-4CC4-B5A0-33071FDC2732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="27660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリ分け" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="25">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -150,13 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>答え</t>
-    <rPh sb="0" eb="1">
-      <t>コタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ア</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -170,6 +163,23 @@
   </si>
   <si>
     <t>エ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019年　春　午前</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解答</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1372,7 +1382,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="b">
         <f t="shared" ref="D2:D4" si="0">EXACT(B2,C2)</f>
@@ -1390,7 +1400,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="b">
         <f t="shared" si="0"/>
@@ -1405,7 +1415,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
@@ -1420,7 +1430,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="b">
         <f>EXACT(B5,C5)</f>
@@ -1435,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="b">
         <f t="shared" ref="D6:D69" si="1">EXACT(B6,C6)</f>
@@ -1450,7 +1460,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="b">
         <f t="shared" si="1"/>
@@ -1468,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="b">
         <f t="shared" si="1"/>
@@ -1483,7 +1493,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="b">
         <f t="shared" si="1"/>
@@ -1498,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="b">
         <f t="shared" si="1"/>
@@ -1516,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" t="b">
         <f t="shared" si="1"/>
@@ -1534,7 +1544,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="b">
         <f t="shared" si="1"/>
@@ -1549,7 +1559,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="b">
         <f t="shared" si="1"/>
@@ -1567,7 +1577,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="b">
         <f t="shared" si="1"/>
@@ -1585,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="b">
         <f t="shared" si="1"/>
@@ -1603,7 +1613,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="b">
         <f t="shared" si="1"/>
@@ -1621,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="b">
         <f t="shared" si="1"/>
@@ -1639,7 +1649,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="b">
         <f t="shared" si="1"/>
@@ -1654,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="b">
         <f t="shared" si="1"/>
@@ -1669,7 +1679,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="b">
         <f t="shared" si="1"/>
@@ -1684,10 +1694,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="b">
         <f t="shared" si="1"/>
@@ -1702,7 +1712,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="b">
         <f t="shared" si="1"/>
@@ -1717,7 +1727,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="b">
         <f t="shared" si="1"/>
@@ -1735,7 +1745,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" t="b">
         <f t="shared" si="1"/>
@@ -1753,7 +1763,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" t="b">
         <f t="shared" si="1"/>
@@ -1768,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="b">
         <f t="shared" si="1"/>
@@ -1783,7 +1793,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" t="b">
         <f t="shared" si="1"/>
@@ -1798,7 +1808,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" t="b">
         <f t="shared" si="1"/>
@@ -1813,7 +1823,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" t="b">
         <f t="shared" si="1"/>
@@ -1831,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" t="b">
         <f t="shared" si="1"/>
@@ -1846,7 +1856,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" t="b">
         <f t="shared" si="1"/>
@@ -1861,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" t="b">
         <f t="shared" si="1"/>
@@ -1879,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" t="b">
         <f t="shared" si="1"/>
@@ -1894,7 +1904,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" t="b">
         <f t="shared" si="1"/>
@@ -1912,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" t="b">
         <f t="shared" si="1"/>
@@ -1930,7 +1940,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" t="b">
         <f t="shared" si="1"/>
@@ -1945,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" t="b">
         <f t="shared" si="1"/>
@@ -1960,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <f t="shared" si="1"/>
@@ -1975,7 +1985,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
         <f t="shared" si="1"/>
@@ -1990,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" t="b">
         <f t="shared" si="1"/>
@@ -2005,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" t="b">
         <f t="shared" si="1"/>
@@ -2017,10 +2027,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <f t="shared" si="1"/>
@@ -2035,7 +2045,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
         <f t="shared" si="1"/>
@@ -2050,7 +2060,7 @@
         <v>15</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" t="b">
         <f t="shared" si="1"/>
@@ -2065,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" t="b">
         <f t="shared" si="1"/>
@@ -2080,7 +2090,7 @@
         <v>13</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" t="b">
         <f t="shared" si="1"/>
@@ -2095,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
         <f t="shared" si="1"/>
@@ -2110,7 +2120,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" t="b">
         <f t="shared" si="1"/>
@@ -2125,7 +2135,7 @@
         <v>12</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
         <f t="shared" si="1"/>
@@ -2140,7 +2150,7 @@
         <v>13</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" t="b">
         <f t="shared" si="1"/>
@@ -2155,7 +2165,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
         <f t="shared" si="1"/>
@@ -2170,7 +2180,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D52" t="b">
         <f t="shared" si="1"/>
@@ -2185,7 +2195,7 @@
         <v>13</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" t="b">
         <f t="shared" si="1"/>
@@ -2203,7 +2213,7 @@
         <v>12</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" t="b">
         <f t="shared" si="1"/>
@@ -2221,7 +2231,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" t="b">
         <f t="shared" si="1"/>
@@ -2236,7 +2246,7 @@
         <v>13</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" t="b">
         <f t="shared" si="1"/>
@@ -2251,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D57" t="b">
         <f t="shared" si="1"/>
@@ -2269,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" t="b">
         <f t="shared" si="1"/>
@@ -2287,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" t="b">
         <f t="shared" si="1"/>
@@ -2305,7 +2315,7 @@
         <v>12</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D60" t="b">
         <f t="shared" si="1"/>
@@ -2320,7 +2330,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" t="b">
         <f t="shared" si="1"/>
@@ -2335,7 +2345,7 @@
         <v>13</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" t="b">
         <f t="shared" si="1"/>
@@ -2350,7 +2360,7 @@
         <v>13</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" t="b">
         <f t="shared" si="1"/>
@@ -2365,7 +2375,7 @@
         <v>15</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64" t="b">
         <f t="shared" si="1"/>
@@ -2380,7 +2390,7 @@
         <v>13</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" t="b">
         <f t="shared" si="1"/>
@@ -2398,7 +2408,7 @@
         <v>15</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" t="b">
         <f t="shared" si="1"/>
@@ -2413,7 +2423,7 @@
         <v>15</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" t="b">
         <f t="shared" si="1"/>
@@ -2428,7 +2438,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
@@ -2443,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
@@ -2458,7 +2468,7 @@
         <v>14</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" t="b">
         <f t="shared" ref="D70:D81" si="2">EXACT(B70,C70)</f>
@@ -2473,7 +2483,7 @@
         <v>13</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" t="b">
         <f t="shared" si="2"/>
@@ -2488,7 +2498,7 @@
         <v>15</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72" t="b">
         <f t="shared" si="2"/>
@@ -2503,7 +2513,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" t="b">
         <f t="shared" si="2"/>
@@ -2518,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74" t="b">
         <f t="shared" si="2"/>
@@ -2533,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" t="b">
         <f t="shared" si="2"/>
@@ -2548,7 +2558,7 @@
         <v>13</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" t="b">
         <f t="shared" si="2"/>
@@ -2566,7 +2576,7 @@
         <v>13</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" t="b">
         <f t="shared" si="2"/>
@@ -2584,7 +2594,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D78" t="b">
         <f t="shared" si="2"/>
@@ -2599,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D79" t="b">
         <f t="shared" si="2"/>
@@ -2614,7 +2624,7 @@
         <v>14</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" t="b">
         <f t="shared" si="2"/>
@@ -2629,7 +2639,7 @@
         <v>12</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81" t="b">
         <f t="shared" si="2"/>
@@ -2664,7 +2674,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2679,6 +2689,9 @@
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H1" s="1">
         <f ca="1">TODAY()</f>
         <v>44046</v>
@@ -2693,25 +2706,25 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8">

--- a/過去問題/2019春/午前カテゴリ分け.xlsx
+++ b/過去問題/2019春/午前カテゴリ分け.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\ap\過去問題\2019春\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2F8695-8E53-4CC4-B5A0-33071FDC2732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4B154D-0D3F-4FB5-B75E-2A9C28F1FE5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="27660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20475" yWindow="3030" windowWidth="12525" windowHeight="9870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリ分け" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="24">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -163,19 +163,6 @@
   </si>
   <si>
     <t>エ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2019年　春　午前</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ハル</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ゴゼン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2674,7 +2661,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2689,12 +2676,9 @@
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="H1" s="1">
         <f ca="1">TODAY()</f>
-        <v>44046</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2706,25 +2690,25 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
